--- a/core/src/test/resources/DataTypes/data_types.xlsx
+++ b/core/src/test/resources/DataTypes/data_types.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -68,18 +68,22 @@
   </si>
   <si>
     <t xml:space="preserve">00000000-0000-0000-0000-000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000000-0000-0000-0000-000000000003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -146,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +172,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +196,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -286,6 +294,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">B2+1</f>
+        <v>1001</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">C2+1</f>
+        <v>20001</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">D2+1</f>
+        <v>3000000001</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">E2+1</f>
+        <v>401.75</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">F2+1</f>
+        <v>5001.333</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <f aca="false">G2&amp;H2</f>
+        <v>aaabbb</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">I2+1</f>
+        <v>36926.4309080556</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">J2+1</f>
+        <v>36926</v>
+      </c>
+      <c r="L4" s="6" t="b">
+        <f aca="false">OR(L2,L3)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
